--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification-with-CCS.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification-with-CCS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323ECB07-42F8-1149-B3F6-6C97B79494BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C9F008-3320-DB48-8DCF-F464D0AF5723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34720" yWindow="500" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$567</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FT fuel - Diesel'!$A$1:$K$585</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="97">
   <si>
     <t>Activity</t>
   </si>
@@ -85,9 +85,6 @@
     <t>production</t>
   </si>
   <si>
-    <t>From PEM electrolysis</t>
-  </si>
-  <si>
     <t>Syngas, RWGS, Production</t>
   </si>
   <si>
@@ -200,18 +197,6 @@
   </si>
   <si>
     <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>market for fly ash and scrubber sludge</t>
@@ -331,6 +316,18 @@
   </si>
   <si>
     <t>hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas, synthetic</t>
+  </si>
+  <si>
+    <t>Adapted from A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834. Energy-based allocation between 3 other co-products (diesel, wax and C5-C10 olefins). Allocation key for this co-product: 11%. Post corrected to preserve carbon balance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A.E.M. van den Oever, D. Costa, M. Messagie, Prospective life cycle assessment of alternatively fueled heavy-duty trucks, Applied Energy, 2023, https://doi.org/10.1016/j.apenergy.2023.120834</t>
+  </si>
+  <si>
+    <t>liquefied petroleum gas production, synthetic, Fischer Tropsch process, from coal, energy allocation, with carbon capture and storage</t>
   </si>
 </sst>
 </file>
@@ -748,11 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K567"/>
+  <dimension ref="A1:I585"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G568" sqref="G568"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -762,26 +758,26 @@
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -789,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -797,15 +793,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -813,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -821,12 +817,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -846,24 +842,12 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
@@ -877,19 +861,13 @@
       <c r="F11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8">
-        <v>100</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8">
         <v>1.00057</v>
@@ -901,15 +879,15 @@
         <v>6</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8">
         <v>6.7000000000000002E-3</v>
@@ -918,58 +896,58 @@
         <v>8</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B14" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16" s="9">
         <v>1.04E-10</v>
@@ -981,95 +959,95 @@
         <v>5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B20" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B21" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1078,49 +1056,49 @@
         <v>8</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B22" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
@@ -1136,15 +1114,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
@@ -1152,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -1160,12 +1138,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1185,24 +1163,12 @@
         <v>3</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B32" s="8">
         <v>1</v>
@@ -1216,19 +1182,13 @@
       <c r="F32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="8">
-        <v>100</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B33" s="8">
         <v>1.00057</v>
@@ -1240,15 +1200,15 @@
         <v>6</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1257,58 +1217,58 @@
         <v>8</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B35" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B36" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B37" s="9">
         <v>2.5999999999999998E-10</v>
@@ -1320,95 +1280,95 @@
         <v>5</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B38" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B39" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B42" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1417,49 +1377,49 @@
         <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B43" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="13"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1</v>
       </c>
@@ -1475,15 +1435,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>5</v>
       </c>
@@ -1499,12 +1459,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>11</v>
       </c>
@@ -1524,24 +1484,12 @@
         <v>3</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B53" s="8">
         <v>1</v>
@@ -1555,19 +1503,13 @@
       <c r="F53" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="8">
-        <v>100</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G53" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B54" s="8">
         <v>1.00057</v>
@@ -1579,15 +1521,15 @@
         <v>6</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1596,58 +1538,58 @@
         <v>8</v>
       </c>
       <c r="D55" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9">
         <v>1.8499999999999999E-5</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9">
         <v>1.04E-10</v>
@@ -1659,95 +1601,95 @@
         <v>5</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B59" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B60" s="9">
         <v>-5.0000000000000002E-5</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K60" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B61" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B62" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B63" s="8">
         <v>3.2599999999999997E-2</v>
@@ -1756,49 +1698,49 @@
         <v>8</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K63" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="13"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>1</v>
       </c>
@@ -1814,15 +1756,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>5</v>
       </c>
@@ -1838,12 +1780,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>11</v>
       </c>
@@ -1863,24 +1805,12 @@
         <v>3</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K73" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B74" s="8">
         <v>1</v>
@@ -1894,19 +1824,13 @@
       <c r="F74" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I74" s="8">
-        <v>100</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K74" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="8">
         <v>1.00057</v>
@@ -1918,15 +1842,15 @@
         <v>6</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K75" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76" s="8">
         <v>6.7000000000000002E-3</v>
@@ -1935,58 +1859,58 @@
         <v>8</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K76" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B77" s="8">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B78" s="9">
         <v>5.8399999999999999E-4</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B79" s="9">
         <v>2.5999999999999998E-10</v>
@@ -1998,95 +1922,95 @@
         <v>5</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B80" s="9">
         <v>-6.2700000000000001E-6</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B81" s="9">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K81" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B82" s="9">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B83" s="8">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K83" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B84" s="8">
         <v>3.2599999999999997E-2</v>
@@ -2095,49 +2019,49 @@
         <v>8</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K84" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B85" s="9">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="13"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>1</v>
       </c>
@@ -2145,15 +2069,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>3</v>
       </c>
@@ -2161,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
@@ -2169,7 +2093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>7</v>
       </c>
@@ -2177,28 +2101,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>11</v>
       </c>
@@ -2223,13 +2147,10 @@
       <c r="H96" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I96" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B97" s="8">
         <v>1</v>
@@ -2244,18 +2165,15 @@
         <v>15</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B98" s="8">
         <v>0.73</v>
@@ -2267,81 +2185,81 @@
         <v>6</v>
       </c>
       <c r="F98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B99" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="H99" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H99" s="8" t="s">
+    </row>
+    <row r="100" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B100" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D100" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F100" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H100" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B101" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102" s="9">
         <v>8.7242061855670114E-2</v>
@@ -2350,28 +2268,28 @@
         <v>8</v>
       </c>
       <c r="D102" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F102" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" s="8" t="s">
+      <c r="H102" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>1</v>
       </c>
@@ -2379,15 +2297,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>3</v>
       </c>
@@ -2395,7 +2313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>7</v>
       </c>
@@ -2411,28 +2329,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>11</v>
       </c>
@@ -2457,13 +2375,10 @@
       <c r="H113" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I113" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B114" s="8">
         <v>1</v>
@@ -2478,15 +2393,15 @@
         <v>15</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B115" s="8">
         <v>0.65</v>
@@ -2498,81 +2413,81 @@
         <v>6</v>
       </c>
       <c r="F115" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B116" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D116" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="H116" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H116" s="8" t="s">
+    </row>
+    <row r="117" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B117" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F117" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H117" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B118" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B119" s="9">
         <v>8.7242061855670114E-2</v>
@@ -2581,28 +2496,28 @@
         <v>8</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="8" t="s">
+      <c r="H119" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H119" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>1</v>
       </c>
@@ -2610,15 +2525,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>3</v>
       </c>
@@ -2626,7 +2541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>5</v>
       </c>
@@ -2634,7 +2549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>7</v>
       </c>
@@ -2642,28 +2557,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>11</v>
       </c>
@@ -2688,13 +2603,10 @@
       <c r="H130" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I130" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B131" s="8">
         <v>1</v>
@@ -2709,18 +2621,15 @@
         <v>15</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I131" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B132" s="8">
         <v>0.98</v>
@@ -2732,81 +2641,81 @@
         <v>6</v>
       </c>
       <c r="F132" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G132" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H132" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B133" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="F133" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="H133" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H133" s="8" t="s">
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B134" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E134" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F134" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H134" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B135" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B136" s="9">
         <v>8.7242061855670114E-2</v>
@@ -2815,28 +2724,28 @@
         <v>8</v>
       </c>
       <c r="D136" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F136" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" s="8" t="s">
+      <c r="H136" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H136" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>1</v>
       </c>
@@ -2844,15 +2753,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>7</v>
       </c>
@@ -2876,28 +2785,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B145" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>11</v>
       </c>
@@ -2922,13 +2831,10 @@
       <c r="H147" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I147" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B148" s="8">
         <v>1</v>
@@ -2943,18 +2849,15 @@
         <v>15</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B149" s="8">
         <v>2.1</v>
@@ -2966,81 +2869,81 @@
         <v>6</v>
       </c>
       <c r="F149" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G149" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B150" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E150" s="8" t="s">
+      <c r="F150" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F150" s="8" t="s">
+      <c r="H150" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H150" s="8" t="s">
+    </row>
+    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B151" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E151" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F151" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H151" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B152" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B153" s="9">
         <v>8.7242061855670114E-2</v>
@@ -3049,30 +2952,30 @@
         <v>8</v>
       </c>
       <c r="D153" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F153" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="8" t="s">
+      <c r="H153" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H153" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>1</v>
       </c>
@@ -3080,15 +2983,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>3</v>
       </c>
@@ -3096,7 +2999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>5</v>
       </c>
@@ -3104,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>7</v>
       </c>
@@ -3112,28 +3015,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>11</v>
       </c>
@@ -3158,13 +3061,10 @@
       <c r="H164" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I164" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B165" s="8">
         <v>1</v>
@@ -3179,18 +3079,15 @@
         <v>15</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H165" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I165" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B166" s="8">
         <v>2.35</v>
@@ -3202,81 +3099,81 @@
         <v>6</v>
       </c>
       <c r="F166" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G166" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H166" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B167" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D167" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E167" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="F167" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="H167" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H167" s="8" t="s">
+    </row>
+    <row r="168" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B168" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D168" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E168" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E168" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F168" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H168" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H168" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H169" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B170" s="9">
         <v>8.7242061855670114E-2</v>
@@ -3285,28 +3182,28 @@
         <v>8</v>
       </c>
       <c r="D170" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G170" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F170" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="8" t="s">
+      <c r="H170" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H170" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>1</v>
       </c>
@@ -3314,15 +3211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>3</v>
       </c>
@@ -3330,7 +3227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>7</v>
       </c>
@@ -3346,28 +3243,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B179" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>11</v>
       </c>
@@ -3396,9 +3293,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B182" s="8">
         <v>1</v>
@@ -3413,15 +3310,15 @@
         <v>15</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B183" s="8">
         <v>2.3199999999999998</v>
@@ -3433,81 +3330,81 @@
         <v>6</v>
       </c>
       <c r="F183" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B184" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D184" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E184" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="8" t="s">
+      <c r="F184" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F184" s="8" t="s">
+      <c r="H184" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H184" s="8" t="s">
+    </row>
+    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B185" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D185" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E185" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E185" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F185" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H185" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H185" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B186" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B187" s="9">
         <v>8.7242061855670114E-2</v>
@@ -3516,28 +3413,28 @@
         <v>8</v>
       </c>
       <c r="D187" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G187" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F187" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" s="8" t="s">
+      <c r="H187" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H187" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>1</v>
       </c>
@@ -3545,15 +3442,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>3</v>
       </c>
@@ -3561,7 +3458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>7</v>
       </c>
@@ -3577,28 +3474,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:8" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>11</v>
       </c>
@@ -3623,13 +3520,10 @@
       <c r="H198" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I198" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B199" s="8">
         <v>1</v>
@@ -3644,18 +3538,15 @@
         <v>15</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H199" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I199" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B200" s="8">
         <v>2.2599999999999998</v>
@@ -3667,81 +3558,81 @@
         <v>6</v>
       </c>
       <c r="F200" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H200" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B201" s="8">
         <v>3.6416023188405786</v>
       </c>
       <c r="D201" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E201" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E201" s="8" t="s">
+      <c r="F201" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="H201" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H201" s="8" t="s">
+    </row>
+    <row r="202" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="B202" s="8">
         <v>1.0754991304347825E-3</v>
       </c>
       <c r="D202" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E202" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E202" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F202" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H202" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H202" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B203" s="9">
         <v>6.7000000000000001E-12</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F203" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G203" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B204" s="9">
         <v>8.7242061855670114E-2</v>
@@ -3750,960 +3641,943 @@
         <v>8</v>
       </c>
       <c r="D204" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F204" s="8" t="s">
+      <c r="H204" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>36</v>
+      </c>
+      <c r="B213" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>5</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
+        <v>3</v>
+      </c>
+      <c r="G215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" t="str">
+        <f>B206</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, from coal, energy allocation, with carbon capture and storage</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>15</v>
+      </c>
+      <c r="G216" t="str">
+        <f>B206</f>
+        <v>liquefied petroleum gas production, synthetic, Fischer Tropsch process, from coal, energy allocation, with carbon capture and storage</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>85</v>
+      </c>
+      <c r="B217">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C217" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
+        <v>17</v>
+      </c>
+      <c r="G217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>18</v>
       </c>
-      <c r="G204" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="6" t="s">
+      <c r="B218">
+        <f>3.64160231884058*0.11</f>
+        <v>0.4005762550724638</v>
+      </c>
+      <c r="D218" t="s">
+        <v>19</v>
+      </c>
+      <c r="E218" t="s">
+        <v>20</v>
+      </c>
+      <c r="F218" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219">
+        <f>0.00107549913043478*0.11</f>
+        <v>1.1830490434782582E-4</v>
+      </c>
+      <c r="D219" t="s">
+        <v>24</v>
+      </c>
+      <c r="E219" t="s">
+        <v>25</v>
+      </c>
+      <c r="F219" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="3">
+        <v>6.7000000000000001E-12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220" t="s">
+        <v>5</v>
+      </c>
+      <c r="F220" t="s">
+        <v>17</v>
+      </c>
+      <c r="G220" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221">
+        <v>0.13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>20</v>
+      </c>
+      <c r="F221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>26</v>
+      </c>
+      <c r="B222" s="3">
+        <f>0.0872420618556701*0.11</f>
+        <v>9.5966268041237108E-3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" t="s">
+        <v>17</v>
+      </c>
+      <c r="G222" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B224" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B225" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B230" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B234" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B207" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B213" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B215" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G215" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B216" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A217" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B217" s="8">
+      <c r="B235" s="8">
         <v>0.125</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F217" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+      <c r="C235" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G235" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B236" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B218" s="8">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="C218" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="8" t="s">
+      <c r="F236" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G236" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F218" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B219" s="8">
+    </row>
+    <row r="237" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B237" s="8">
         <f>60*0.001/106.6</f>
         <v>5.6285178236397749E-4</v>
       </c>
-      <c r="D219" s="8" t="s">
+      <c r="D237" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E237" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E219" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F219" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+      <c r="F237" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B238" s="8">
+        <v>1</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B239" s="11">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="11"/>
+    </row>
+    <row r="241" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B246" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B247" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B250" s="8">
+        <v>1</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G250" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B220" s="8">
-        <v>1</v>
-      </c>
-      <c r="C220" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G220" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B221" s="11">
-        <v>5.7100000000000004E-6</v>
-      </c>
-      <c r="C221" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D221" s="8" t="s">
+      <c r="B251" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G251" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B252" s="9">
+        <v>1.9300000000000002E-9</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F221" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="11"/>
-    </row>
-    <row r="223" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6" t="s">
+      <c r="F252" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B253" s="9">
         <v>0</v>
       </c>
-      <c r="B223" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B224" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B225" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B229" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B231" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C231" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G231" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B232" s="8">
-        <v>1</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F232" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G232" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A233" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B233" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B234" s="9">
-        <v>1.9300000000000002E-9</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F234" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B235" s="9">
-        <v>0</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E235" s="8" t="s">
+      <c r="D253" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E253" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F253" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F235" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="10"/>
-      <c r="G236" s="10"/>
-    </row>
-    <row r="237" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B243" s="3"/>
-    </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B244" s="3"/>
-    </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="1"/>
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="4"/>
-      <c r="G256" s="4"/>
-    </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B260" s="5"/>
-    </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B261" s="5"/>
-    </row>
-    <row r="262" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="1"/>
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="4"/>
-      <c r="G272" s="4"/>
-    </row>
-    <row r="273" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="4"/>
-      <c r="G273" s="4"/>
-    </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="1"/>
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B289" s="3"/>
-    </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B290" s="3"/>
-    </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="1"/>
-      <c r="B292" s="2"/>
-    </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="4"/>
-      <c r="G302" s="4"/>
-    </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B306" s="5"/>
-    </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B307" s="5"/>
-    </row>
-    <row r="308" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="1"/>
-      <c r="B308" s="2"/>
-    </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="4"/>
-      <c r="G318" s="4"/>
-    </row>
-    <row r="319" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="4"/>
-      <c r="G319" s="4"/>
-    </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="1"/>
-      <c r="B322" s="2"/>
-    </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B335" s="3"/>
-    </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B336" s="3"/>
-    </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="1"/>
-      <c r="B338" s="2"/>
-    </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="4"/>
-      <c r="G348" s="4"/>
-    </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B352" s="5"/>
-    </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B353" s="5"/>
-    </row>
-    <row r="354" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="1"/>
-      <c r="B354" s="2"/>
-    </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="4"/>
-      <c r="G364" s="4"/>
-    </row>
-    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="4"/>
-      <c r="G365" s="4"/>
-    </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="1"/>
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B381" s="3"/>
-    </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B382" s="3"/>
-    </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="1"/>
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="4"/>
-      <c r="G394" s="4"/>
-    </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B398" s="5"/>
-    </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B399" s="5"/>
-    </row>
-    <row r="400" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="1"/>
-      <c r="B400" s="2"/>
-    </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A410" s="4"/>
-      <c r="G410" s="4"/>
-    </row>
-    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A411" s="4"/>
-      <c r="G411" s="4"/>
-    </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A414" s="1"/>
-      <c r="B414" s="2"/>
-    </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B427" s="3"/>
-    </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B428" s="3"/>
-    </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="1"/>
-      <c r="B430" s="2"/>
-    </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="4"/>
-      <c r="G440" s="4"/>
-    </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B444" s="5"/>
-    </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="1"/>
-      <c r="B446" s="2"/>
-    </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="4"/>
-      <c r="G456" s="4"/>
-    </row>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="4"/>
-      <c r="G457" s="4"/>
-    </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="1"/>
-      <c r="B459" s="2"/>
-    </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="1"/>
-    </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="3"/>
-    </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="3"/>
-    </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A475" s="1"/>
-      <c r="B475" s="2"/>
-    </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A482" s="1"/>
-    </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A485" s="4"/>
-      <c r="G485" s="4"/>
-    </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="5"/>
-    </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B490" s="5"/>
-    </row>
-    <row r="491" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="1"/>
-      <c r="B491" s="2"/>
-    </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="501" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A501" s="4"/>
-      <c r="G501" s="4"/>
-    </row>
-    <row r="502" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A502" s="4"/>
-      <c r="G502" s="4"/>
-    </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A505" s="1"/>
-      <c r="B505" s="2"/>
-    </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A512" s="1"/>
-    </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B518" s="3"/>
-    </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B519" s="3"/>
-    </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A521" s="1"/>
-      <c r="B521" s="2"/>
-    </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A528" s="1"/>
-    </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="531" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="4"/>
-      <c r="G531" s="4"/>
-    </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B535" s="5"/>
-    </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="1"/>
-      <c r="B537" s="2"/>
-    </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A544" s="1"/>
-    </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="547" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A547" s="4"/>
-      <c r="G547" s="4"/>
-    </row>
-    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A548" s="4"/>
-      <c r="G548" s="4"/>
-    </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A550" s="1"/>
-      <c r="B550" s="2"/>
-    </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="1"/>
-    </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A561" s="1"/>
-      <c r="B561" s="2"/>
-    </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A567" s="1"/>
+    </row>
+    <row r="254" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="10"/>
+      <c r="G254" s="10"/>
+    </row>
+    <row r="255" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B262" s="3"/>
+    </row>
+    <row r="264" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="1"/>
+      <c r="B264" s="2"/>
+    </row>
+    <row r="271" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="274" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="4"/>
+      <c r="G274" s="4"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B278" s="5"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="1"/>
+      <c r="B280" s="2"/>
+    </row>
+    <row r="287" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="290" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
+      <c r="G290" s="4"/>
+    </row>
+    <row r="291" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
+      <c r="G291" s="4"/>
+    </row>
+    <row r="294" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="1"/>
+      <c r="B294" s="2"/>
+    </row>
+    <row r="301" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="1"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B307" s="3"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B308" s="3"/>
+    </row>
+    <row r="310" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="1"/>
+      <c r="B310" s="2"/>
+    </row>
+    <row r="317" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="1"/>
+    </row>
+    <row r="320" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="4"/>
+      <c r="G320" s="4"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B325" s="5"/>
+    </row>
+    <row r="326" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="1"/>
+      <c r="B326" s="2"/>
+    </row>
+    <row r="333" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="1"/>
+    </row>
+    <row r="336" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="4"/>
+      <c r="G336" s="4"/>
+    </row>
+    <row r="337" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="4"/>
+      <c r="G337" s="4"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="1"/>
+      <c r="B340" s="2"/>
+    </row>
+    <row r="347" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="1"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B353" s="3"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B354" s="3"/>
+    </row>
+    <row r="356" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="1"/>
+      <c r="B356" s="2"/>
+    </row>
+    <row r="363" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="1"/>
+    </row>
+    <row r="366" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="4"/>
+      <c r="G366" s="4"/>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B370" s="5"/>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B371" s="5"/>
+    </row>
+    <row r="372" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="1"/>
+      <c r="B372" s="2"/>
+    </row>
+    <row r="379" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A379" s="1"/>
+    </row>
+    <row r="382" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="4"/>
+      <c r="G382" s="4"/>
+    </row>
+    <row r="383" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="4"/>
+      <c r="G383" s="4"/>
+    </row>
+    <row r="386" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="1"/>
+      <c r="B386" s="2"/>
+    </row>
+    <row r="393" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="1"/>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B399" s="3"/>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B400" s="3"/>
+    </row>
+    <row r="402" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="1"/>
+      <c r="B402" s="2"/>
+    </row>
+    <row r="409" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
+    </row>
+    <row r="412" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A412" s="4"/>
+      <c r="G412" s="4"/>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B416" s="5"/>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B417" s="5"/>
+    </row>
+    <row r="418" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="1"/>
+      <c r="B418" s="2"/>
+    </row>
+    <row r="425" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="1"/>
+    </row>
+    <row r="428" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="4"/>
+      <c r="G428" s="4"/>
+    </row>
+    <row r="429" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="4"/>
+      <c r="G429" s="4"/>
+    </row>
+    <row r="432" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="1"/>
+      <c r="B432" s="2"/>
+    </row>
+    <row r="439" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="1"/>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B445" s="3"/>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B446" s="3"/>
+    </row>
+    <row r="448" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="1"/>
+      <c r="B448" s="2"/>
+    </row>
+    <row r="455" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="1"/>
+    </row>
+    <row r="458" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="4"/>
+      <c r="G458" s="4"/>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B462" s="5"/>
+    </row>
+    <row r="464" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="1"/>
+      <c r="B464" s="2"/>
+    </row>
+    <row r="471" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="1"/>
+    </row>
+    <row r="474" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A474" s="4"/>
+      <c r="G474" s="4"/>
+    </row>
+    <row r="475" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="4"/>
+      <c r="G475" s="4"/>
+    </row>
+    <row r="477" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A477" s="1"/>
+      <c r="B477" s="2"/>
+    </row>
+    <row r="484" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="1"/>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B490" s="3"/>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B491" s="3"/>
+    </row>
+    <row r="493" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="1"/>
+      <c r="B493" s="2"/>
+    </row>
+    <row r="500" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="1"/>
+    </row>
+    <row r="503" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A503" s="4"/>
+      <c r="G503" s="4"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B507" s="5"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B508" s="5"/>
+    </row>
+    <row r="509" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="1"/>
+      <c r="B509" s="2"/>
+    </row>
+    <row r="516" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A516" s="1"/>
+    </row>
+    <row r="519" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A519" s="4"/>
+      <c r="G519" s="4"/>
+    </row>
+    <row r="520" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="4"/>
+      <c r="G520" s="4"/>
+    </row>
+    <row r="523" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A523" s="1"/>
+      <c r="B523" s="2"/>
+    </row>
+    <row r="530" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="1"/>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B536" s="3"/>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B537" s="3"/>
+    </row>
+    <row r="539" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A539" s="1"/>
+      <c r="B539" s="2"/>
+    </row>
+    <row r="546" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="1"/>
+    </row>
+    <row r="549" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A549" s="4"/>
+      <c r="G549" s="4"/>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B553" s="5"/>
+    </row>
+    <row r="555" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A555" s="1"/>
+      <c r="B555" s="2"/>
+    </row>
+    <row r="562" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A562" s="1"/>
+    </row>
+    <row r="565" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A565" s="4"/>
+      <c r="G565" s="4"/>
+    </row>
+    <row r="566" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="4"/>
+      <c r="G566" s="4"/>
+    </row>
+    <row r="568" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A568" s="1"/>
+      <c r="B568" s="2"/>
+    </row>
+    <row r="574" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A574" s="1"/>
+    </row>
+    <row r="579" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="1"/>
+      <c r="B579" s="2"/>
+    </row>
+    <row r="585" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K567" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, with CCS, at coal gasification plant"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K585" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
